--- a/Chocolate Analysis.xlsx
+++ b/Chocolate Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\chandoo youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EB8F7-6138-48DE-B3A2-62A42CBDF742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B8EA1B-EA4D-4F35-BE0B-16EEFD5C6E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Best Sales by Country" sheetId="11" r:id="rId8"/>
     <sheet name="Profit Analysis" sheetId="12" r:id="rId9"/>
     <sheet name="Sales Report" sheetId="14" r:id="rId10"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId11"/>
+    <sheet name="Profit %" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$C$11:$G$11</definedName>
@@ -32,9 +32,6 @@
     <definedName name="_xlchart.v1.2" hidden="1">'Anomaly Detection'!$P$2:$P$301</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Anomaly Detection'!$P$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Anomaly Detection'!$P$2:$P$301</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Anomaly Detection'!$N$2:$N$301</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Anomaly Detection'!$P$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Anomaly Detection'!$P$2:$P$301</definedName>
     <definedName name="_xlcn.WorksheetConnection_ChocolateAnalysis.xlsxdata1" hidden="1">data[]</definedName>
     <definedName name="Slicer_Geography">#N/A</definedName>
     <definedName name="Slicer_Geography1">#N/A</definedName>
@@ -42,19 +39,19 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="396" r:id="rId12"/>
-    <pivotCache cacheId="399" r:id="rId13"/>
-    <pivotCache cacheId="402" r:id="rId14"/>
-    <pivotCache cacheId="405" r:id="rId15"/>
-    <pivotCache cacheId="409" r:id="rId16"/>
-    <pivotCache cacheId="433" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId14"/>
+    <pivotCache cacheId="74" r:id="rId15"/>
+    <pivotCache cacheId="83" r:id="rId16"/>
+    <pivotCache cacheId="110" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="391" r:id="rId18"/>
-        <pivotCache cacheId="395" r:id="rId19"/>
-        <pivotCache cacheId="408" r:id="rId20"/>
+        <pivotCache cacheId="6" r:id="rId18"/>
+        <pivotCache cacheId="7" r:id="rId19"/>
+        <pivotCache cacheId="8" r:id="rId20"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -114,7 +111,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -136,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="78">
   <si>
     <t>Product</t>
   </si>
@@ -264,9 +261,6 @@
     <t>Carla Molina</t>
   </si>
   <si>
-    <t>Beginner Excel Data Analysis Course</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
@@ -371,6 +365,9 @@
   <si>
     <t>Profit %</t>
   </si>
+  <si>
+    <t>Sum of Cost</t>
+  </si>
 </sst>
 </file>
 
@@ -382,8 +379,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00;\(\$#,##0.00\);\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="176" formatCode="0%;\-0%;0%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0%;\-0%;0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -597,38 +594,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -679,6 +657,28 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -694,9 +694,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -2910,10 +2907,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2921,8 +2918,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Distribution of Sales By Country
-</cx:v>
+          <cx:v>Distribution of Sales By Country</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -2952,7 +2948,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{81E24D37-289F-4BD7-8EA4-1EA21B064BFC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Amount</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4649,14 +4645,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>132755</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>94655</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1133929</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4684,8 +4680,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247055" y="761405"/>
-          <a:ext cx="1257895" cy="1257895"/>
+          <a:off x="250684" y="0"/>
+          <a:ext cx="3659102" cy="2131786"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4712,8 +4708,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Sales Person">
@@ -4736,7 +4732,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4983,16 +4979,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5028,7 +5024,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2990850" y="190500"/>
+              <a:off x="4381500" y="254000"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5077,8 +5073,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Geography 1">
@@ -5101,7 +5097,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5146,109 +5142,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45019.657637962962" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{57BE9A8A-B4ED-465A-B076-F7249A7F354C}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[data].[Product].[Product]" caption="Product" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="22">
-        <s v="50% Dark Bites"/>
-        <s v="70% Dark Bites"/>
-        <s v="85% Dark Bars"/>
-        <s v="99% Dark &amp; Pure"/>
-        <s v="After Nines"/>
-        <s v="Almond Choco"/>
-        <s v="Baker's Choco Chips"/>
-        <s v="Caramel Stuffed Bars"/>
-        <s v="Choco Coated Almonds"/>
-        <s v="Drinking Coco"/>
-        <s v="Eclairs"/>
-        <s v="Fruit &amp; Nut Bars"/>
-        <s v="Manuka Honey Choco"/>
-        <s v="Milk Bars"/>
-        <s v="Mint Chip Choco"/>
-        <s v="Orange Choco"/>
-        <s v="Organic Choco Syrup"/>
-        <s v="Peanut Butter Cubes"/>
-        <s v="Raspberry Choco"/>
-        <s v="Smooth Sliky Salty"/>
-        <s v="Spicy Special Slims"/>
-        <s v="White Choc"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Total Profit]" caption="Total Profit" numFmtId="0" hierarchy="11" level="32767"/>
-    <cacheField name="[data].[Geography].[Geography]" caption="Geography" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="15">
-    <cacheHierarchy uniqueName="[data].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data].[Sales Person].[All]" allUniqueName="[data].[Sales Person].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data].[Geography].[All]" allUniqueName="[data].[Geography].[All]" dimensionUniqueName="[data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[data].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data].[Product].[All]" allUniqueName="[data].[Product].[All]" dimensionUniqueName="[data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[data].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data].[Amount].[All]" allUniqueName="[data].[Amount].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data].[Units].[All]" allUniqueName="[data].[Units].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data].[Cost per Unit]" caption="Cost per Unit" attribute="1" defaultMemberUniqueName="[data].[Cost per Unit].[All]" allUniqueName="[data].[Cost per Unit].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data].[Cost].[All]" allUniqueName="[data].[Cost].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="3"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Units]" caption="Sum of Units" measure="1" displayFolder="" measureGroup="data" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="4"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="data" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sales per Unit]" caption="Sales per Unit" measure="1" displayFolder="" measureGroup="data" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Profit]" caption="Total Profit" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Profit %]" caption="Profit %" measure="1" displayFolder="" measureGroup="data" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count data]" caption="__XL_Count data" measure="1" displayFolder="" measureGroup="data" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension name="data" uniqueName="[data]" caption="data"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="data" caption="data"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="0"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45019.657639814817" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D7957849-CA29-430A-906F-5FEC5F35F80E}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -5339,7 +5232,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45019.65764085648" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2A9BEEF5-DA5D-4748-84A7-134BCA16DA4C}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -5430,7 +5323,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45019.657641898149" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1C4F5FE1-F5DE-40FA-AE03-344045D06030}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
@@ -5516,8 +5409,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45019.65764409722" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{91C8C5D9-865D-4AA9-8E45-CF776D343404}">
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45021.817301388888" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{91C8C5D9-865D-4AA9-8E45-CF776D343404}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[data].[Geography].[Geography]" caption="Geography" numFmtId="0" hierarchy="1" level="1">
@@ -5606,8 +5499,118 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45021.817654282408" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{57BE9A8A-B4ED-465A-B076-F7249A7F354C}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[data].[Product].[Product]" caption="Product" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="21">
+        <s v="50% Dark Bites"/>
+        <s v="70% Dark Bites"/>
+        <s v="85% Dark Bars"/>
+        <s v="99% Dark &amp; Pure"/>
+        <s v="After Nines"/>
+        <s v="Almond Choco"/>
+        <s v="Baker's Choco Chips"/>
+        <s v="Caramel Stuffed Bars"/>
+        <s v="Choco Coated Almonds"/>
+        <s v="Eclairs"/>
+        <s v="Fruit &amp; Nut Bars"/>
+        <s v="Manuka Honey Choco"/>
+        <s v="Milk Bars"/>
+        <s v="Mint Chip Choco"/>
+        <s v="Orange Choco"/>
+        <s v="Organic Choco Syrup"/>
+        <s v="Peanut Butter Cubes"/>
+        <s v="Raspberry Choco"/>
+        <s v="Smooth Sliky Salty"/>
+        <s v="Spicy Special Slims"/>
+        <s v="White Choc"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Total Profit]" caption="Total Profit" numFmtId="0" hierarchy="11" level="32767"/>
+    <cacheField name="[Measures].[Sum of Amount]" caption="Sum of Amount" numFmtId="0" hierarchy="7" level="32767"/>
+    <cacheField name="[Measures].[Sum of Cost]" caption="Sum of Cost" numFmtId="0" hierarchy="9" level="32767"/>
+    <cacheField name="[data].[Geography].[Geography]" caption="Geography" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="15">
+    <cacheHierarchy uniqueName="[data].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data].[Sales Person].[All]" allUniqueName="[data].[Sales Person].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data].[Geography].[All]" allUniqueName="[data].[Geography].[All]" dimensionUniqueName="[data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data].[Product].[All]" allUniqueName="[data].[Product].[All]" dimensionUniqueName="[data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data].[Amount].[All]" allUniqueName="[data].[Amount].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data].[Units].[All]" allUniqueName="[data].[Units].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost per Unit]" caption="Cost per Unit" attribute="1" defaultMemberUniqueName="[data].[Cost per Unit].[All]" allUniqueName="[data].[Cost per Unit].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data].[Cost].[All]" allUniqueName="[data].[Cost].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Units]" caption="Sum of Units" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sales per Unit]" caption="Sales per Unit" measure="1" displayFolder="" measureGroup="data" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Profit]" caption="Total Profit" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Profit %]" caption="Profit %" measure="1" displayFolder="" measureGroup="data" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data]" caption="__XL_Count data" measure="1" displayFolder="" measureGroup="data" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension name="data" uniqueName="[data]" caption="data"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="data" caption="data"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="0"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45019.658672453705" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A469ED7A-DCBC-4AE8-9DBA-C30D42965786}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Hrishikesh Bunge" refreshedDate="45021.817902662035" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A469ED7A-DCBC-4AE8-9DBA-C30D42965786}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[data].[Product].[Product]" caption="Product" numFmtId="0" hierarchy="2" level="1">
@@ -5627,13 +5630,13 @@
         <s v="Manuka Honey Choco"/>
         <s v="Milk Bars"/>
         <s v="Mint Chip Choco"/>
-        <s v="Orange Choco"/>
         <s v="Organic Choco Syrup"/>
         <s v="Peanut Butter Cubes"/>
-        <s v="Raspberry Choco"/>
         <s v="Smooth Sliky Salty"/>
         <s v="Spicy Special Slims"/>
         <s v="White Choc"/>
+        <s v="Orange Choco" u="1"/>
+        <s v="Raspberry Choco" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Measures].[Sum of Amount]" caption="Sum of Amount" numFmtId="0" hierarchy="7" level="32767"/>
@@ -5885,7 +5888,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48CE4BFE-7B01-486E-99BA-F48C0681E3B4}" name="PivotTable4" cacheId="409" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48CE4BFE-7B01-486E-99BA-F48C0681E3B4}" name="PivotTable4" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5946,7 +5949,7 @@
   <pivotHierarchies count="15">
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data].[Sales Person].&amp;[Brien Boise]"/>
+        <member name="[data].[Sales Person].&amp;[Ches Bonnell]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -5988,7 +5991,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39409013-3BF1-4868-9021-D876C55A47D8}" name="PivotTable6" cacheId="405" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39409013-3BF1-4868-9021-D876C55A47D8}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -6106,7 +6109,129 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{036A2CDD-5CA6-4EB4-BCAC-F6249D5788E1}" name="PivotTable7" cacheId="402" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4D96DCA-B0AC-46A4-8BE1-F846909960C1}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D2:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="15">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="count" id="1" iMeasureHier="7">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Chocolate Analysis.xlsx!data">
+        <x15:activeTabTopLevelEntity name="[data]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{036A2CDD-5CA6-4EB4-BCAC-F6249D5788E1}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -6227,165 +6352,44 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4D96DCA-B0AC-46A4-8BE1-F846909960C1}" name="PivotTable8" cacheId="399" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D2:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="15">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="count" id="1" iMeasureHier="7">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 top="0" val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="1"/>
-    <rowHierarchyUsage hierarchyUsage="0"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Chocolate Analysis.xlsx!data">
-        <x15:activeTabTopLevelEntity name="[data]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC55A703-11C6-4C95-9883-AB69AE343D45}" name="PivotTable9" cacheId="396" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A2:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC55A703-11C6-4C95-9883-AB69AE343D45}" name="PivotTable9" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:D24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="22">
+      <items count="21">
         <item x="1"/>
         <item x="4"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
+        <item x="13"/>
+        <item x="15"/>
         <item x="16"/>
-        <item x="17"/>
+        <item x="18"/>
         <item x="19"/>
         <item x="20"/>
-        <item x="21"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="9"/>
         <item x="3"/>
         <item x="5"/>
         <item x="8"/>
-        <item x="13"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="17"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="22">
     <i>
       <x/>
     </i>
@@ -6449,22 +6453,36 @@
     <i>
       <x v="20"/>
     </i>
-    <i>
-      <x v="21"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="3">
+    <dataField name="Sum of Amount" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Cost" fld="3" baseField="0" baseItem="0"/>
     <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="15">
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[data].[Geography].&amp;[India]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -6483,6 +6501,9 @@
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="2"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -6500,8 +6521,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13AEE1E7-8F3C-45A5-AFCE-F98A17C5CD6E}" name="PivotTable11" cacheId="433" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:E24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13AEE1E7-8F3C-45A5-AFCE-F98A17C5CD6E}" name="PivotTable11" cacheId="110" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:E22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="22">
@@ -6538,7 +6559,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -6598,12 +6619,6 @@
     </i>
     <i>
       <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -6671,7 +6686,11 @@
   </conditionalFormats>
   <pivotHierarchies count="15">
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[data].[Geography].&amp;[Australia]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -6736,7 +6755,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[data].[Sales Person].&amp;[Brien Boise]"/>
+        <selection n="[data].[Sales Person].&amp;[Ches Bonnell]"/>
       </selections>
     </olap>
   </data>
@@ -6766,7 +6785,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[data].[Geography].[All]"/>
+        <selection n="[data].[Geography].&amp;[India]"/>
       </selections>
     </olap>
   </data>
@@ -6796,7 +6815,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[data].[Geography].[All]"/>
+        <selection n="[data].[Geography].&amp;[Australia]"/>
       </selections>
     </olap>
   </data>
@@ -6833,18 +6852,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBDE6661-8920-4654-8BE4-B2E3CE8705E7}" name="data" displayName="data" ref="C11:I311" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBDE6661-8920-4654-8BE4-B2E3CE8705E7}" name="data" displayName="data" ref="C11:I311" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="C11:I311" xr:uid="{FBDE6661-8920-4654-8BE4-B2E3CE8705E7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1FD472FB-3A5F-45C2-A940-B383B200C82E}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{0AED9149-08B5-4DB8-83A5-15ACCD6A38A6}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{EBDFD552-CC07-467B-B104-D19049D8E021}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{9FE7B6BE-AD5D-484D-A7CF-0A3DD6D3F7E9}" name="Amount" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{0CFA0973-679F-4742-AD6E-AC2486469E9D}" name="Units" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AED125E9-1CF7-466D-A717-4A733D89020E}" name="Cost per Unit" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{9FE7B6BE-AD5D-484D-A7CF-0A3DD6D3F7E9}" name="Amount" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0CFA0973-679F-4742-AD6E-AC2486469E9D}" name="Units" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AED125E9-1CF7-466D-A717-4A733D89020E}" name="Cost per Unit" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.XLOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{17BFE436-F18B-47CE-AFE4-D68B608BF8A3}" name="Cost" dataDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{17BFE436-F18B-47CE-AFE4-D68B608BF8A3}" name="Cost" dataDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>data[[#This Row],[Cost per Unit]]*data[[#This Row],[Units]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6853,28 +6872,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0DD8FB7-57BB-472B-A945-35DF1883182E}" name="data4" displayName="data4" ref="B3:F303" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0DD8FB7-57BB-472B-A945-35DF1883182E}" name="data4" displayName="data4" ref="B3:F303" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B3:F303" xr:uid="{F0DD8FB7-57BB-472B-A945-35DF1883182E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{554C5CAD-4BFB-4B42-A774-62E61B71A095}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{7E24AF11-A46E-482A-BCCB-0B5C4940832E}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{14E15556-BEA1-4526-B5C8-D326C0356234}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{3FFBDFCB-F0CB-4180-AD3D-650352FE524C}" name="Amount" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{84A6F6A1-8269-4B76-A950-E0C3766BB6E9}" name="Units" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3FFBDFCB-F0CB-4180-AD3D-650352FE524C}" name="Amount" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{84A6F6A1-8269-4B76-A950-E0C3766BB6E9}" name="Units" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CE12944-C756-4E15-9728-3248DC12ACCC}" name="data5" displayName="data5" ref="M1:Q301" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CE12944-C756-4E15-9728-3248DC12ACCC}" name="data5" displayName="data5" ref="M1:Q301" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="M1:Q301" xr:uid="{7CE12944-C756-4E15-9728-3248DC12ACCC}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A1AA94AF-B612-4D72-81AC-825B188B8B3A}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{DB638096-5897-4420-829E-A9C3E691132E}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{4D106BD1-9168-41D1-B8A5-DC3C39BCC38C}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{512CF23E-A2BA-4821-BAC2-6E541F7DFDFE}" name="Amount" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EEA61951-042B-4256-9D2C-858E2B5361B9}" name="Units" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{512CF23E-A2BA-4821-BAC2-6E541F7DFDFE}" name="Amount" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{EEA61951-042B-4256-9D2C-858E2B5361B9}" name="Units" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7179,8 +7198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:L658"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7202,9 +7221,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="C1" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="s">
@@ -7220,13 +7237,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -7557,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
@@ -16270,7 +16287,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16283,7 +16300,7 @@
     <row r="1" spans="1:11" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="37"/>
       <c r="B1" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -16302,22 +16319,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="G6" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="34"/>
     </row>
@@ -16328,18 +16345,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="35">
         <f>COUNTIFS(data[Geography],D4)</f>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" ref="G8:G17">_xlfn._xlws.SORT(_xlfn.UNIQUE(data[Sales Person]),1,TRUE)</f>
@@ -16347,15 +16364,15 @@
       </c>
       <c r="I8" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G8,data[Geography],D$4)</f>
-        <v>2142</v>
+        <v>45752</v>
       </c>
       <c r="J8" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G8,data[Geography],D$4)</f>
-        <v>318</v>
+        <v>1518</v>
       </c>
       <c r="K8">
         <f>IF(I8&gt;12000,1,-1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -16364,11 +16381,11 @@
       </c>
       <c r="I9" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G9,data[Geography],D$4)</f>
-        <v>25151</v>
+        <v>27132</v>
       </c>
       <c r="J9" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G9,data[Geography],D$4)</f>
-        <v>1707</v>
+        <v>447</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" ref="K9:K17" si="0">IF(I9&gt;12000,1,-1)</f>
@@ -16377,105 +16394,105 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C10" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="str">
         <v>Carla Molina</v>
       </c>
       <c r="I10" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G10,data[Geography],D$4)</f>
-        <v>15785</v>
+        <v>3976</v>
       </c>
       <c r="J10" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G10,data[Geography],D$4)</f>
-        <v>699</v>
+        <v>72</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="32">
         <f>SUMIFS(data[Amount],data[Geography],D$4)</f>
-        <v>189434</v>
+        <v>173530</v>
       </c>
       <c r="D11" s="32">
         <f>AVERAGEIFS(data[Amount],data[Geography],D$4)</f>
-        <v>3574.2264150943397</v>
+        <v>4338.25</v>
       </c>
       <c r="G11" t="str">
         <v>Ches Bonnell</v>
       </c>
       <c r="I11" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G11,data[Geography],D$4)</f>
-        <v>28546</v>
+        <v>5404</v>
       </c>
       <c r="J11" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G11,data[Geography],D$4)</f>
-        <v>1005</v>
+        <v>444</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="32">
         <f>SUMIFS(data[Cost],data[Geography],D$4)</f>
-        <v>107216.28</v>
+        <v>53938.530000000028</v>
       </c>
       <c r="D12" s="32">
         <f>AVERAGEIFS(data[Cost],data[Geography],D$4)</f>
-        <v>2022.9486792452831</v>
+        <v>1348.4632500000007</v>
       </c>
       <c r="G12" t="str">
         <v>Curtice Advani</v>
       </c>
       <c r="I12" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G12,data[Geography],D$4)</f>
-        <v>11018</v>
+        <v>15827</v>
       </c>
       <c r="J12" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G12,data[Geography],D$4)</f>
-        <v>972</v>
+        <v>885</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="32">
         <f>C11-C12</f>
-        <v>82217.72</v>
+        <v>119591.46999999997</v>
       </c>
       <c r="D13" s="32">
         <f>D11-D12</f>
-        <v>1551.2777358490566</v>
+        <v>2989.7867499999993</v>
       </c>
       <c r="G13" t="str">
         <v>Gigi Bohling</v>
       </c>
       <c r="I13" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G13,data[Geography],D$4)</f>
-        <v>28273</v>
+        <v>16548</v>
       </c>
       <c r="J13" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G13,data[Geography],D$4)</f>
-        <v>912</v>
+        <v>552</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="0"/>
@@ -16484,30 +16501,30 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <f>SUMIFS(data[Units],data[Geography],D$4)</f>
-        <v>10158</v>
+        <v>5745</v>
       </c>
       <c r="D14" s="33">
         <f>AVERAGEIFS(data[Units],data[Geography],D4)</f>
-        <v>191.66037735849056</v>
+        <v>143.625</v>
       </c>
       <c r="G14" t="str">
         <v>Gunar Cockshoot</v>
       </c>
       <c r="I14" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G14,data[Geography],D$4)</f>
-        <v>16492</v>
+        <v>10269</v>
       </c>
       <c r="J14" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G14,data[Geography],D$4)</f>
-        <v>1215</v>
+        <v>492</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -16516,11 +16533,11 @@
       </c>
       <c r="I15" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G15,data[Geography],D$4)</f>
-        <v>11319</v>
+        <v>9751</v>
       </c>
       <c r="J15" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G15,data[Geography],D$4)</f>
-        <v>693</v>
+        <v>582</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="0"/>
@@ -16533,11 +16550,11 @@
       </c>
       <c r="I16" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G16,data[Geography],D$4)</f>
-        <v>12383</v>
+        <v>17808</v>
       </c>
       <c r="J16" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G16,data[Geography],D$4)</f>
-        <v>804</v>
+        <v>309</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="0"/>
@@ -16550,11 +16567,11 @@
       </c>
       <c r="I17" s="32">
         <f>SUMIFS(data[Amount],data[Sales Person],$G17,data[Geography],D$4)</f>
-        <v>38325</v>
+        <v>21063</v>
       </c>
       <c r="J17" s="20">
         <f>SUMIFS(data[Units],data[Sales Person],$G17,data[Geography],D$4)</f>
-        <v>1833</v>
+        <v>444</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="0"/>
@@ -16604,10 +16621,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05912ECC-E6AB-4A07-B328-6A08A0192077}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16621,19 +16638,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -16641,16 +16658,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="20">
-        <v>43183</v>
+        <v>6867</v>
       </c>
       <c r="C2" s="20">
-        <v>2022</v>
+        <v>600</v>
       </c>
       <c r="D2" s="21">
-        <v>19525.600000000002</v>
+        <v>-153</v>
       </c>
       <c r="E2" s="38">
-        <v>0.45215941458444298</v>
+        <v>-2.2280471821756225E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -16658,16 +16675,16 @@
         <v>30</v>
       </c>
       <c r="B3" s="20">
-        <v>66500</v>
+        <v>10129</v>
       </c>
       <c r="C3" s="20">
-        <v>2802</v>
+        <v>312</v>
       </c>
       <c r="D3" s="21">
-        <v>25899.020000000011</v>
+        <v>5608.12</v>
       </c>
       <c r="E3" s="38">
-        <v>0.38945894736842124</v>
+        <v>0.55366966136834828</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -16675,16 +16692,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="20">
-        <v>35378</v>
+        <v>4760</v>
       </c>
       <c r="C4" s="20">
-        <v>1044</v>
+        <v>111</v>
       </c>
       <c r="D4" s="21">
-        <v>30189.32</v>
+        <v>4208.33</v>
       </c>
       <c r="E4" s="38">
-        <v>0.85333597150771667</v>
+        <v>0.88410294117647059</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -16692,16 +16709,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="20">
-        <v>44744</v>
+        <v>5474</v>
       </c>
       <c r="C5" s="20">
-        <v>1956</v>
+        <v>168</v>
       </c>
       <c r="D5" s="21">
-        <v>29800.160000000003</v>
+        <v>4190.4799999999996</v>
       </c>
       <c r="E5" s="38">
-        <v>0.66601466118362251</v>
+        <v>0.76552429667519173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -16709,16 +16726,16 @@
         <v>22</v>
       </c>
       <c r="B6" s="20">
-        <v>66283</v>
+        <v>8288</v>
       </c>
       <c r="C6" s="20">
-        <v>2052</v>
+        <v>228</v>
       </c>
       <c r="D6" s="21">
-        <v>46234.960000000006</v>
+        <v>6060.4400000000005</v>
       </c>
       <c r="E6" s="38">
-        <v>0.69753873542235578</v>
+        <v>0.73123069498069504</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -16726,16 +16743,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="20">
-        <v>33551</v>
+        <v>16534</v>
       </c>
       <c r="C7" s="20">
-        <v>1566</v>
+        <v>231</v>
       </c>
       <c r="D7" s="21">
-        <v>14946.919999999998</v>
+        <v>13789.72</v>
       </c>
       <c r="E7" s="38">
-        <v>0.44549849482876808</v>
+        <v>0.83402201524132091</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -16743,16 +16760,16 @@
         <v>26</v>
       </c>
       <c r="B8" s="20">
-        <v>70273</v>
+        <v>11886</v>
       </c>
       <c r="C8" s="20">
-        <v>2142</v>
+        <v>489</v>
       </c>
       <c r="D8" s="21">
-        <v>58277.8</v>
+        <v>9147.6</v>
       </c>
       <c r="E8" s="38">
-        <v>0.82930570773981471</v>
+        <v>0.76961130742049477</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -16760,16 +16777,16 @@
         <v>28</v>
       </c>
       <c r="B9" s="20">
-        <v>72373</v>
+        <v>12257</v>
       </c>
       <c r="C9" s="20">
-        <v>3207</v>
+        <v>441</v>
       </c>
       <c r="D9" s="21">
-        <v>39084.340000000004</v>
+        <v>7679.4199999999992</v>
       </c>
       <c r="E9" s="38">
-        <v>0.54004034653807365</v>
+        <v>0.6265334094802969</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -16777,16 +16794,16 @@
         <v>32</v>
       </c>
       <c r="B10" s="20">
-        <v>71967</v>
+        <v>8827</v>
       </c>
       <c r="C10" s="20">
-        <v>2301</v>
+        <v>234</v>
       </c>
       <c r="D10" s="21">
-        <v>52063.35</v>
+        <v>6802.9</v>
       </c>
       <c r="E10" s="38">
-        <v>0.72343365709283425</v>
+        <v>0.77069219440353454</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -16794,16 +16811,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="20">
-        <v>52150</v>
+        <v>1778</v>
       </c>
       <c r="C11" s="20">
-        <v>1752</v>
+        <v>270</v>
       </c>
       <c r="D11" s="21">
-        <v>40814.559999999998</v>
+        <v>31.100000000000136</v>
       </c>
       <c r="E11" s="38">
-        <v>0.78263777564717163</v>
+        <v>1.7491563554555757E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -16811,16 +16828,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="20">
-        <v>63721</v>
+        <v>2408</v>
       </c>
       <c r="C12" s="20">
-        <v>2331</v>
+        <v>9</v>
       </c>
       <c r="D12" s="21">
-        <v>56471.590000000004</v>
+        <v>2380.0100000000002</v>
       </c>
       <c r="E12" s="38">
-        <v>0.88623201142480512</v>
+        <v>0.9883762458471762</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -16828,16 +16845,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="20">
-        <v>56644</v>
+        <v>6118</v>
       </c>
       <c r="C13" s="20">
-        <v>1812</v>
+        <v>387</v>
       </c>
       <c r="D13" s="21">
-        <v>44884.12</v>
+        <v>3606.37</v>
       </c>
       <c r="E13" s="38">
-        <v>0.79238966174705183</v>
+        <v>0.58946878064727037</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -16845,16 +16862,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="20">
-        <v>58009</v>
+        <v>2541</v>
       </c>
       <c r="C14" s="20">
-        <v>2976</v>
+        <v>45</v>
       </c>
       <c r="D14" s="21">
-        <v>36700.840000000004</v>
+        <v>2218.8000000000002</v>
       </c>
       <c r="E14" s="38">
-        <v>0.6326749297522799</v>
+        <v>0.87319952774498233</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -16862,16 +16879,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="20">
-        <v>47271</v>
+        <v>16114</v>
       </c>
       <c r="C15" s="20">
-        <v>1881</v>
+        <v>1158</v>
       </c>
       <c r="D15" s="21">
-        <v>29721.27</v>
+        <v>5309.8600000000006</v>
       </c>
       <c r="E15" s="38">
-        <v>0.62874214634765502</v>
+        <v>0.32951843117785778</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -16879,156 +16896,122 @@
         <v>16</v>
       </c>
       <c r="B16" s="20">
-        <v>62111</v>
+        <v>3584</v>
       </c>
       <c r="C16" s="20">
-        <v>2154</v>
+        <v>126</v>
       </c>
       <c r="D16" s="21">
-        <v>43177.340000000004</v>
+        <v>2476.46</v>
       </c>
       <c r="E16" s="38">
-        <v>0.6951641416174269</v>
+        <v>0.69097656250000006</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B17" s="20">
-        <v>54712</v>
+        <v>3402</v>
       </c>
       <c r="C17" s="20">
-        <v>2196</v>
+        <v>345</v>
       </c>
       <c r="D17" s="21">
-        <v>31390.480000000003</v>
+        <v>-2369.8499999999995</v>
       </c>
       <c r="E17" s="38">
-        <v>0.57374031291124439</v>
+        <v>-0.69660493827160475</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B18" s="20">
-        <v>69461</v>
+        <v>10465</v>
       </c>
       <c r="C18" s="20">
-        <v>2982</v>
+        <v>222</v>
       </c>
       <c r="D18" s="21">
-        <v>19572.14</v>
+        <v>7718.8600000000006</v>
       </c>
       <c r="E18" s="38">
-        <v>0.28177164164063284</v>
+        <v>0.7375881509794554</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="20">
-        <v>69160</v>
+        <v>8995</v>
       </c>
       <c r="C19" s="20">
-        <v>1854</v>
+        <v>441</v>
       </c>
       <c r="D19" s="21">
-        <v>46226.020000000004</v>
+        <v>6441.61</v>
       </c>
       <c r="E19" s="38">
-        <v>0.6683924233661076</v>
+        <v>0.71613229571984427</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="20">
-        <v>68971</v>
+        <v>13755</v>
       </c>
       <c r="C20" s="20">
-        <v>1533</v>
+        <v>114</v>
       </c>
       <c r="D20" s="21">
-        <v>50988.91</v>
+        <v>12729</v>
       </c>
       <c r="E20" s="38">
-        <v>0.73928042220643464</v>
+        <v>0.92540894220283532</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B21" s="20">
-        <v>39263</v>
+        <v>14497</v>
       </c>
       <c r="C21" s="20">
-        <v>1683</v>
+        <v>333</v>
       </c>
       <c r="D21" s="21">
-        <v>29518.43</v>
+        <v>10118.049999999999</v>
       </c>
       <c r="E21" s="38">
-        <v>0.75181290273285284</v>
+        <v>0.69794095330068284</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B22" s="20">
-        <v>37772</v>
+        <v>168679</v>
       </c>
       <c r="C22" s="20">
-        <v>1308</v>
+        <v>6264</v>
       </c>
       <c r="D22" s="21">
-        <v>26000</v>
+        <v>107994.28000000001</v>
       </c>
       <c r="E22" s="38">
-        <v>0.68834056973419466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="20">
-        <v>57372</v>
-      </c>
-      <c r="C23" s="20">
-        <v>2106</v>
-      </c>
-      <c r="D23" s="21">
-        <v>29678.099999999995</v>
-      </c>
-      <c r="E23" s="38">
-        <v>0.51729240744614091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1240869</v>
-      </c>
-      <c r="C24" s="20">
-        <v>45660</v>
-      </c>
-      <c r="D24" s="21">
-        <v>801165.2699999999</v>
-      </c>
-      <c r="E24" s="38">
-        <v>0.64564854952456696</v>
+        <v>0.64023547685248317</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="E2:E23">
+  <conditionalFormatting pivot="1" sqref="E2:E21">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -17061,7 +17044,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <f>AVERAGE(data[Amount])</f>
@@ -17070,7 +17053,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <f>MEDIAN(data[Amount])</f>
@@ -17079,7 +17062,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <f>MIN(data[Amount])</f>
@@ -17088,7 +17071,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <f>MAX(data[Amount])</f>
@@ -17097,7 +17080,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4">
         <f>MAX(data[Amount])-MIN(data[Amount])</f>
@@ -17106,7 +17089,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <f>_xlfn.PERCENTILE.EXC(data[Amount],0.25)</f>
@@ -17115,7 +17098,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <f>_xlfn.PERCENTILE.EXC(data[Amount],0.75)</f>
@@ -17124,7 +17107,7 @@
     </row>
     <row r="10" spans="1:4" ht="33.5" x14ac:dyDescent="0.75">
       <c r="A10" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="17"/>
@@ -17168,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>1</v>
@@ -23212,7 +23195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H303">
-    <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -23245,7 +23228,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23255,7 +23238,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="26" x14ac:dyDescent="0.6">
       <c r="B2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -23264,10 +23247,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -23335,26 +23318,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6FF141-C0B1-42B5-8002-AA49A4D1FDE1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -23362,10 +23345,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="20">
-        <v>15141</v>
+        <v>18865</v>
       </c>
       <c r="C2" s="20">
-        <v>1182</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -23373,10 +23356,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="20">
-        <v>5019</v>
+        <v>21931</v>
       </c>
       <c r="C3" s="20">
-        <v>150</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -23384,10 +23367,10 @@
         <v>34</v>
       </c>
       <c r="B4" s="20">
-        <v>5516</v>
+        <v>31661</v>
       </c>
       <c r="C4" s="20">
-        <v>507</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -23395,10 +23378,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="20">
-        <v>20125</v>
+        <v>43568</v>
       </c>
       <c r="C5" s="20">
-        <v>711</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -23406,10 +23389,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="20">
-        <v>27132</v>
+        <v>5404</v>
       </c>
       <c r="C6" s="20">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -23417,21 +23400,21 @@
         <v>35</v>
       </c>
       <c r="B7" s="20">
-        <v>25151</v>
+        <v>28546</v>
       </c>
       <c r="C7" s="20">
-        <v>1707</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="20">
-        <v>98084</v>
+        <v>149975</v>
       </c>
       <c r="C8" s="20">
-        <v>4704</v>
+        <v>5295</v>
       </c>
     </row>
   </sheetData>
@@ -23452,7 +23435,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23465,7 +23448,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.8">
       <c r="A1" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -23474,16 +23457,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -23558,7 +23541,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="20">
         <v>310065</v>
@@ -23572,12 +23555,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -23609,7 +23592,7 @@
         <v>1</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="13:17" x14ac:dyDescent="0.35">
@@ -28739,10 +28722,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -28751,10 +28734,10 @@
       </c>
       <c r="B2" s="20"/>
       <c r="D2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -28891,7 +28874,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="20">
         <v>234045</v>
@@ -28905,7 +28888,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="20">
         <v>30709</v>
@@ -28913,13 +28896,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="23"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="23"/>
     </row>
@@ -28930,208 +28913,340 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9D51D0-AF48-4F82-B2F2-1311AA181901}">
-  <dimension ref="A2:B25"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="21">
-        <v>25899.020000000011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="20">
+        <v>3402</v>
+      </c>
+      <c r="C3" s="20">
+        <v>5303.34</v>
+      </c>
+      <c r="D3" s="21">
+        <v>-1901.3400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21">
-        <v>46234.960000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="20">
+        <v>10668</v>
+      </c>
+      <c r="C4" s="20">
+        <v>3956.85</v>
+      </c>
+      <c r="D4" s="21">
+        <v>6711.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21">
-        <v>58277.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="20">
+        <v>22855</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3175.2</v>
+      </c>
+      <c r="D5" s="21">
+        <v>19679.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="21">
-        <v>39084.340000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="20">
+        <v>18018</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4795.5600000000004</v>
+      </c>
+      <c r="D6" s="21">
+        <v>13222.439999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21">
-        <v>56471.590000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="20">
+        <v>22344</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2295.1799999999998</v>
+      </c>
+      <c r="D7" s="21">
+        <v>20048.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21">
-        <v>44884.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="20">
+        <v>18081</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2647.92</v>
+      </c>
+      <c r="D8" s="21">
+        <v>15433.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="21">
-        <v>36700.840000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="20">
+        <v>6230</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1267.3200000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>4962.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="21">
-        <v>43177.340000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="20">
+        <v>6440</v>
+      </c>
+      <c r="C10" s="20">
+        <v>6223.32</v>
+      </c>
+      <c r="D10" s="21">
+        <v>216.68000000000029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="21">
-        <v>19572.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="20">
+        <v>13517</v>
+      </c>
+      <c r="C11" s="20">
+        <v>6072.99</v>
+      </c>
+      <c r="D11" s="21">
+        <v>7444.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="21">
-        <v>46226.020000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="20">
+        <v>15519</v>
+      </c>
+      <c r="C12" s="20">
+        <v>5863.3799999999992</v>
+      </c>
+      <c r="D12" s="21">
+        <v>9655.6200000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="21">
-        <v>29518.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
+        <v>3507</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1667.52</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1839.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="20">
+        <v>6832</v>
+      </c>
+      <c r="C14" s="20">
+        <v>243</v>
+      </c>
+      <c r="D14" s="21">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="21">
-        <v>29678.099999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="20">
+        <v>9296</v>
+      </c>
+      <c r="C15" s="20">
+        <v>3037.6500000000005</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6258.3499999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="20">
+        <v>17745</v>
+      </c>
+      <c r="C16" s="20">
+        <v>5202.8399999999992</v>
+      </c>
+      <c r="D16" s="21">
+        <v>12542.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="20">
+        <v>525</v>
+      </c>
+      <c r="C17" s="20">
+        <v>570.24</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-45.240000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="20">
+        <v>17773</v>
+      </c>
+      <c r="C18" s="20">
+        <v>6072.3</v>
+      </c>
+      <c r="D18" s="21">
+        <v>11700.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="20">
+        <v>252</v>
+      </c>
+      <c r="C19" s="20">
+        <v>503.82</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-251.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="21">
-        <v>19525.600000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="B20" s="20">
+        <v>9191</v>
+      </c>
+      <c r="C20" s="20">
+        <v>7546.5</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1644.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="21">
-        <v>30189.32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="B21" s="20">
+        <v>8862</v>
+      </c>
+      <c r="C21" s="20">
+        <v>939.32999999999993</v>
+      </c>
+      <c r="D21" s="21">
+        <v>7922.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="21">
-        <v>31390.480000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="B22" s="20">
+        <v>28861</v>
+      </c>
+      <c r="C22" s="20">
+        <v>10481.939999999999</v>
+      </c>
+      <c r="D22" s="21">
+        <v>18379.060000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21">
-        <v>50988.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21">
-        <v>40814.559999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="21">
-        <v>29800.160000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="21">
-        <v>14946.919999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="21">
-        <v>52063.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="20">
+        <v>12551</v>
+      </c>
+      <c r="C23" s="20">
+        <v>2815.2</v>
+      </c>
+      <c r="D23" s="21">
+        <v>9735.7999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="21">
-        <v>29721.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="21">
-        <v>801165.2699999999</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="20">
+        <v>252469</v>
+      </c>
+      <c r="C24" s="20">
+        <v>80681.400000000038</v>
+      </c>
+      <c r="D24" s="21">
+        <v>171787.59999999998</v>
       </c>
     </row>
   </sheetData>
